--- a/front/img/product/product.xlsx
+++ b/front/img/product/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\桌面\DI-2\ninenight0411\front\img\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59065D87-2077-4927-B93C-45DA0A5C2DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EFB5DF-168E-49E1-8946-3FC48E55123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C9A81A2-85EC-4078-AAAF-8D6B55A80832}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
   <si>
     <t>品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,6 +1145,33 @@
   </si>
   <si>
     <t>百威啤酒堅持7個步驟耗時31天的釀造時程，為的就是百威啤酒獨一無二的清醇順暢口感。從大麥、啤酒花、米與酵母的原料挑選開始，到每個釀造過程的監控與品管，及最後裝瓶上市前的品質與口感測試，百威啤酒的釀酒師們以全球統一的嚴格標準，堅持每個釀造細節，確保每個國家都有著相同的清醇順暢口感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亞太地區銷售最好的烈啤酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="1"/>
+      </rPr>
+      <t>─</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紅馬烈啤酒，在杜拜及沙烏地阿拉伯等地都是銷售成長最快的啤酒，擁有8%的濃烈豪氣！口感強勁有力、個性鮮明，滿足喜歡刺激與冒險精神的啤酒飲用者。
+紅馬烈啤酒酒體呈金黃色澤，開罐後撲鼻的濃郁麥芽香，配以啤酒花的苦味與香氣，濃烈又順口；獨樹一格的8%酒精濃度，讓您輕鬆體驗微醺的快意及風味濃厚的口感。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1255,6 +1282,12 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1402,6 +1435,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,31 +1492,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,49 +1510,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1812,117 +1845,117 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K10"/>
+      <selection activeCell="G11" sqref="G11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="37">
         <v>75</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="3.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1931,17 +1964,17 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="13">
         <f>790/20</f>
         <v>39.5</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -1950,7 +1983,7 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1959,16 +1992,16 @@
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="14">
         <v>60</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -1977,7 +2010,7 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1986,26 +2019,26 @@
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="14">
         <f>730/24</f>
         <v>30.416666666666668</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="69.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2014,16 +2047,16 @@
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="14">
         <v>40</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
@@ -2032,7 +2065,7 @@
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2041,26 +2074,26 @@
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="14">
         <f>55</f>
         <v>55</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="93.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2069,23 +2102,25 @@
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="14">
         <v>45</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2094,24 +2129,24 @@
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="14">
         <f>960/12</f>
         <v>80</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2120,23 +2155,23 @@
       <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="14">
         <v>270</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2145,14 +2180,14 @@
       <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="14">
         <v>70</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
@@ -2161,7 +2196,7 @@
       <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2170,23 +2205,23 @@
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="14">
         <v>90</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2195,15 +2230,15 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="14">
         <f>4800/12</f>
         <v>400</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -2212,7 +2247,7 @@
       <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2221,23 +2256,23 @@
       <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="14">
         <v>30</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2246,14 +2281,14 @@
       <c r="E18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="14">
         <v>25</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
@@ -2262,7 +2297,7 @@
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2271,14 +2306,14 @@
       <c r="E19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="14">
         <v>75</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
@@ -2287,7 +2322,7 @@
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2296,24 +2331,24 @@
       <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="14">
         <f>850/24</f>
         <v>35.416666666666664</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2322,14 +2357,14 @@
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="14">
         <v>30</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
@@ -2338,7 +2373,7 @@
       <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2347,23 +2382,23 @@
       <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="14">
         <v>50</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>15</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2372,15 +2407,15 @@
       <c r="E23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="14">
         <f>970/24</f>
         <v>40.416666666666664</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
@@ -2389,7 +2424,7 @@
       <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2398,14 +2433,14 @@
       <c r="E24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="14">
         <v>50</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
@@ -2414,7 +2449,7 @@
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2423,23 +2458,23 @@
       <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="14">
         <v>70</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2448,23 +2483,23 @@
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="14">
         <v>80</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2473,14 +2508,14 @@
       <c r="E27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="14">
         <v>30</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
@@ -2489,7 +2524,7 @@
       <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2498,14 +2533,14 @@
       <c r="E28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="14">
         <v>70</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
@@ -2514,7 +2549,7 @@
       <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2523,17 +2558,17 @@
       <c r="E29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="14">
         <f>600/24</f>
         <v>25</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11" ht="93.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
@@ -2542,7 +2577,7 @@
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2551,25 +2586,25 @@
       <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="14">
         <v>50</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2578,25 +2613,25 @@
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="14">
         <v>270</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2605,26 +2640,26 @@
       <c r="E32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="14">
         <f>1450/24</f>
         <v>60.416666666666664</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2633,25 +2668,25 @@
       <c r="E33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="14">
         <v>70</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>25</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2660,25 +2695,25 @@
       <c r="E34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="11">
         <v>45</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="107" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>26</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2687,25 +2722,25 @@
       <c r="E35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="14">
         <v>75</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="127" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>27</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2714,26 +2749,26 @@
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="14">
         <f>3200/20</f>
         <v>160</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>28</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2742,25 +2777,25 @@
       <c r="E37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="14">
         <v>40</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>29</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2769,26 +2804,26 @@
       <c r="E38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="14">
         <f>1450/24</f>
         <v>60.416666666666664</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" ht="104.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>30</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2797,25 +2832,25 @@
       <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="14">
         <v>55</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" ht="104.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>31</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2824,25 +2859,25 @@
       <c r="E40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="14">
         <v>85</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>32</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2851,26 +2886,26 @@
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="14">
         <f>840/12</f>
         <v>70</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" ht="120.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>33</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2879,26 +2914,26 @@
       <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="14">
         <f>840/12</f>
         <v>70</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" ht="191.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>34</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2907,26 +2942,26 @@
       <c r="E43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="14">
         <f>1020/12</f>
         <v>85</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>35</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2935,25 +2970,25 @@
       <c r="E44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="14">
         <v>40</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>36</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2962,26 +2997,26 @@
       <c r="E45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="14">
         <f>840/12</f>
         <v>70</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" ht="77" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>37</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2990,16 +3025,16 @@
       <c r="E46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="14">
         <v>880</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
@@ -3008,7 +3043,7 @@
       <c r="B47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -3017,16 +3052,16 @@
       <c r="E47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="14">
         <v>70</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
@@ -3035,7 +3070,7 @@
       <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -3044,16 +3079,16 @@
       <c r="E48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="14">
         <v>60</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" ht="56.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
@@ -3062,7 +3097,7 @@
       <c r="B49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -3071,25 +3106,25 @@
       <c r="E49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="14">
         <v>65</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="17"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>41</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -3098,16 +3133,16 @@
       <c r="E50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="14">
         <v>45</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="17"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
@@ -3116,7 +3151,7 @@
       <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3125,16 +3160,16 @@
       <c r="E51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="14">
         <v>30</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" ht="56.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
@@ -3143,7 +3178,7 @@
       <c r="B52" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -3152,25 +3187,25 @@
       <c r="E52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="14">
         <v>30</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>44</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -3179,16 +3214,16 @@
       <c r="E53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="14">
         <v>25</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
@@ -3197,7 +3232,7 @@
       <c r="B54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -3206,26 +3241,26 @@
       <c r="E54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="14">
         <f>890/20</f>
         <v>44.5</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>46</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3234,17 +3269,17 @@
       <c r="E55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="14">
         <f>950/24</f>
         <v>39.583333333333336</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
@@ -3318,41 +3353,14 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:K5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="G31:K31"/>
@@ -3368,14 +3376,41 @@
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:K5"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
